--- a/QUESTION_5/q5.xlsx
+++ b/QUESTION_5/q5.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SAM\Documents\GitHub\SQL-Project\QUESTION_5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA840881-9153-4CE8-B213-CD3F0E1FDB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{194ACA48-7BE1-4207-AC09-B2BC3B5315C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{C62A8861-1088-4A1D-BD1B-5A800B0D6E0D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E8429F0B-7544-44EA-A377-B40C2501E52C}"/>
   </bookViews>
   <sheets>
     <sheet name="Question_5" sheetId="1" r:id="rId1"/>
@@ -551,7 +551,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-36FF-46D3-9E32-537EC98C63C1}"/>
+              <c16:uniqueId val="{00000000-07C7-412B-AACB-BA059A6D705C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -839,7 +839,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-36FF-46D3-9E32-537EC98C63C1}"/>
+              <c16:uniqueId val="{00000001-07C7-412B-AACB-BA059A6D705C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1095,7 +1095,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="3200"/>
-              <a:t>each cards sale for each month</a:t>
+              <a:t>each cards and without card sale for each month</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1422,7 +1422,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3F44-41A2-8228-B9CD5FDCAB82}"/>
+              <c16:uniqueId val="{00000000-0D15-4BC9-8432-BD4F9E5134F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1707,7 +1707,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3F44-41A2-8228-B9CD5FDCAB82}"/>
+              <c16:uniqueId val="{00000001-0D15-4BC9-8432-BD4F9E5134F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1992,7 +1992,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3F44-41A2-8228-B9CD5FDCAB82}"/>
+              <c16:uniqueId val="{00000002-0D15-4BC9-8432-BD4F9E5134F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2277,12 +2277,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-3F44-41A2-8228-B9CD5FDCAB82}"/>
+              <c16:uniqueId val="{00000003-0D15-4BC9-8432-BD4F9E5134F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="0"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
@@ -2298,9 +2298,7 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2564,7 +2562,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-3F44-41A2-8228-B9CD5FDCAB82}"/>
+              <c16:uniqueId val="{00000004-0D15-4BC9-8432-BD4F9E5134F9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2820,7 +2818,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="3200"/>
-              <a:t>Number of sales made by each card for each month</a:t>
+              <a:t>Number of sales made by each card and without card for each month</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3147,7 +3145,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AD6A-4604-AAB6-8F21278B471D}"/>
+              <c16:uniqueId val="{00000000-DB21-4ED5-A3EC-73BBD78917A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3432,7 +3430,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD6A-4604-AAB6-8F21278B471D}"/>
+              <c16:uniqueId val="{00000001-DB21-4ED5-A3EC-73BBD78917A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3717,7 +3715,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AD6A-4604-AAB6-8F21278B471D}"/>
+              <c16:uniqueId val="{00000002-DB21-4ED5-A3EC-73BBD78917A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4002,12 +4000,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AD6A-4604-AAB6-8F21278B471D}"/>
+              <c16:uniqueId val="{00000003-DB21-4ED5-A3EC-73BBD78917A6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="0"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
@@ -4023,9 +4021,7 @@
           <c:spPr>
             <a:ln w="34925" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -4289,7 +4285,1189 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AD6A-4604-AAB6-8F21278B471D}"/>
+              <c16:uniqueId val="{00000004-DB21-4ED5-A3EC-73BBD78917A6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="699512880"/>
+        <c:axId val="699514960"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="699512880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699514960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="699514960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699512880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200"/>
+              <a:t>Total</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200" baseline="0"/>
+              <a:t> payment done without card </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200"/>
+              <a:t>for each month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Question_5!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>saleByOther</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Question_5!$C$2:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>37073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Question_5!$V$2:$V$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>11664.9658</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19545.317599999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24718.602200000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27453.294399999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38948.885799999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47223.236400000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23526.931</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19769.941999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37589.850400000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21890.453399999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43844.752200000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40225.820599999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36315.733699999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22358.532999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56557.054100000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12524.2572</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5829.3594000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>69508.895099999994</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14470.279500000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22867.842100000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>58139.658600000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>31440.341100000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23044.7857</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>70704.842600000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>47605.614099999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>45298.757799999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48265.639000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53030.443399999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44757.230799999998</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>65908.511799999993</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>76415.7356</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>57482.201399999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>68949.725900000005</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>75734.514899999995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>92766.674299999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>69051.230599999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>16516.900300000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>360.05340000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF70-4934-8668-82F66E62AB94}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="699512880"/>
+        <c:axId val="699514960"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="699512880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="95000"/>
+                <a:alpha val="10000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699514960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="months"/>
+        <c:majorUnit val="1"/>
+        <c:majorTimeUnit val="months"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="699514960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                  <a:alpha val="10000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="699512880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200"/>
+              <a:t>Number of sales made without</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="3200"/>
+              <a:t>card for each month</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="3200" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Question_5!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NoOfsaleByOther</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Question_5!$C$2:$C$39</c:f>
+              <c:numCache>
+                <c:formatCode>mmm\-yy</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>37073</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37165</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37196</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>37257</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37288</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37316</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37347</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>37408</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37438</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37469</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>37561</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>37591</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37622</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>37653</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37681</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>37712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>37742</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>37773</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37803</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37834</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37865</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>37895</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37926</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37956</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37987</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38018</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38047</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38078</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38108</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38139</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>38169</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Question_5!$U$2:$U$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="38"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D7A6-46B8-BDA6-4E7937C9D20F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4624,6 +5802,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
@@ -6112,6 +7370,998 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="65000"/>
+              <a:lumOff val="35000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="dk1">
+              <a:lumMod val="85000"/>
+              <a:lumOff val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="5000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="95000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" spc="100" baseline="0">
+      <a:effectLst>
+        <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+          <a:prstClr val="black">
+            <a:alpha val="40000"/>
+          </a:prstClr>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:defRPr>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="54000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6132,7 +8382,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B2B250F-6BE9-458D-99CC-6386A08DB2E4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E4CCD7E-68F0-4DE8-82BB-24A36CC7710E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6170,7 +8420,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FD90FA-1F34-4FF9-B44F-D0D4369B3172}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C98037E1-2EC9-4095-9774-1A74DDE7C7B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6208,7 +8458,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C793AF5-1E2C-4665-9BB5-1F755DCBA4EA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CA82B91-3248-469C-9DCE-AC1AD89CE1AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6223,6 +8473,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>591077</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>21025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3A632E-D3E4-442A-9B3C-08A0AF81A75F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1230117</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>12873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>177469</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>33897</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252D9CFC-F6A5-42FA-8ECF-C8C4407833C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8145,11 +10471,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E57920E-E74F-49AA-A00B-F42005213EA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2821D1D4-ABBF-4EE8-8460-B0DA53F635CE}">
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="49" zoomScaleNormal="98" workbookViewId="0">
-      <selection sqref="A1:V39"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="AW99" sqref="AW99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
